--- a/PAELib/VHDL/gates.xlsx
+++ b/PAELib/VHDL/gates.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E81C291B-2EAF-4519-B2AA-26BD4D407A46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B9F329-1A27-4BD2-AF30-41D3FFBC4B43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area" sheetId="17" r:id="rId1"/>
@@ -34,10 +34,15 @@
     <definedName name="um">Area!$B$3</definedName>
     <definedName name="Vdd">ssxlibx2!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -713,7 +718,7 @@
   <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,13 +753,13 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="str">
         <f>ssxlibx2!A9 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!Q9*um*um,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!Q9*um*um,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!Q9*um*um,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!Q9*um*um, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!Q9*um*um, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!Q9*um*um, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!Q9*um*um, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!Q9*mm*mm, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!Q9*mm*mm, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!Q9*mm*mm, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!Q9*mm*mm, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!Q9*mm*mm,"0.00E+00")&amp;"),"</f>
-        <v>buffer_non_inv =&gt;( ssxlib =&gt; 1.21E-11, sxlib =&gt;  1.21E-11 , vxlib =&gt; 1.21E-11 , vsclib =&gt; 6.97E-12 , wsclib =&gt; 7.74E-12 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 0.00E+00),</v>
+        <v>buffer_non_inv =&gt;( ssxlib =&gt; 1.21E-11, sxlib =&gt;  1.21E-11 , vxlib =&gt; 1.21E-11 , vsclib =&gt; 6.97E-12 , wsclib =&gt; 7.74E-12 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 1.00E-07 , hct =&gt; 0.00E+00 , cmos =&gt; 0.00E+00),</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="str">
         <f>ssxlibx2!A10 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!Q10*um*um,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!Q10*um*um,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!Q10*um*um,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!Q10*um*um, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!Q10*um*um, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!Q10*um*um, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!Q10*um*um, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!Q10*mm*mm, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!Q10*mm*mm, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!Q10*mm*mm, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!Q10*mm*mm, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!Q10*mm*mm,"0.00E+00")&amp;"),"</f>
-        <v>inverter =&gt;( ssxlib =&gt; 9.08E-12, sxlib =&gt;  9.08E-12 , vxlib =&gt; 9.08E-12 , vsclib =&gt; 5.23E-12 , wsclib =&gt; 5.81E-12 , vgalib =&gt; 8.52E-12 , rgalib =&gt; 8.52E-12 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 0.00E+00),</v>
+        <v>inverter =&gt;( ssxlib =&gt; 9.08E-12, sxlib =&gt;  9.08E-12 , vxlib =&gt; 9.08E-12 , vsclib =&gt; 5.23E-12 , wsclib =&gt; 5.81E-12 , vgalib =&gt; 8.52E-12 , rgalib =&gt; 8.52E-12 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 1.00E-07 , hct =&gt; 0.00E+00 , cmos =&gt; 0.00E+00),</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +872,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4522,7 +4527,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:Q28"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4624,7 +4629,7 @@
         <v>3.5</v>
       </c>
       <c r="Q10" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4695,7 +4700,7 @@
         <v>3.5</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" ref="Q14:Q19" si="0">1/4</f>
+        <f t="shared" ref="Q14" si="0">1/4</f>
         <v>0.25</v>
       </c>
     </row>
@@ -4713,7 +4718,7 @@
         <v>3.5</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" ref="Q15:Q19" si="1">1/3</f>
+        <f t="shared" ref="Q15" si="1">1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -4731,7 +4736,7 @@
         <v>3.5</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" ref="Q16:Q19" si="2">1/2</f>
+        <f t="shared" ref="Q16" si="2">1/2</f>
         <v>0.5</v>
       </c>
     </row>
@@ -4749,7 +4754,7 @@
         <v>3.5</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" ref="Q17:Q19" si="3">1/4</f>
+        <f t="shared" ref="Q17" si="3">1/4</f>
         <v>0.25</v>
       </c>
     </row>
@@ -4767,7 +4772,7 @@
         <v>3.5</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" ref="Q18:Q19" si="4">1/3</f>
+        <f t="shared" ref="Q18" si="4">1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5134,7 +5139,7 @@
         <v>3.5</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" ref="Q14:Q19" si="0">1/4</f>
+        <f t="shared" ref="Q14" si="0">1/4</f>
         <v>0.25</v>
       </c>
     </row>
@@ -5152,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" ref="Q15:Q19" si="1">1/3</f>
+        <f t="shared" ref="Q15" si="1">1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5170,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" ref="Q16:Q19" si="2">1/2</f>
+        <f t="shared" ref="Q16" si="2">1/2</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5188,7 +5193,7 @@
         <v>3.5</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" ref="Q17:Q19" si="3">1/4</f>
+        <f t="shared" ref="Q17" si="3">1/4</f>
         <v>0.25</v>
       </c>
     </row>
@@ -5206,7 +5211,7 @@
         <v>3.5</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" ref="Q18:Q19" si="4">1/3</f>
+        <f t="shared" ref="Q18" si="4">1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -6162,127 +6167,127 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="20" t="str">
         <f>ssxlibx2!A8 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L8*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L8*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L8*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L8*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L8*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L8*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L8*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L8*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L8*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L8*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L8*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L8*nA,"0.00E+00")&amp;"),"</f>
-        <v>tristate_buffer =&gt;( ssxlib =&gt; 0.000E+00, sxlib =&gt;  0.000E+00 , vxlib =&gt; 0.000E+00 , vsclib =&gt; 0.000E+00 , wsclib =&gt; 0.000E+00 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 200E-08 , act =&gt; 800E-08 , hc =&gt; 400E-08 , hct =&gt; 800E-08 , cmos =&gt; 0.000E+00),</v>
+        <v>tristate_buffer =&gt;( ssxlib =&gt; 0.00E+00, sxlib =&gt;  0.00E+00 , vxlib =&gt; 0.00E+00 , vsclib =&gt; 0.00E+00 , wsclib =&gt; 0.00E+00 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 2.00E-06 , act =&gt; 8.00E-06 , hc =&gt; 4.00E-06 , hct =&gt; 8.00E-06 , cmos =&gt; 0.00E+00),</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="20" t="str">
         <f>ssxlibx2!A9 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L9*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L9*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L9*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L9*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L9*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L9*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L9*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L9*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L9*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L9*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L9*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L9*nA,"0.00E+00")&amp;"),"</f>
-        <v>buffer_non_inv =&gt;( ssxlib =&gt; 733E-12, sxlib =&gt;  733E-12 , vxlib =&gt; 925E-12 , vsclib =&gt; 667E-12 , wsclib =&gt; 667E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 0.000E+00),</v>
+        <v>buffer_non_inv =&gt;( ssxlib =&gt; 7.33E-10, sxlib =&gt;  7.33E-10 , vxlib =&gt; 9.25E-10 , vsclib =&gt; 6.67E-10 , wsclib =&gt; 6.67E-10 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 0.00E+00),</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="str">
         <f>ssxlibx2!A10 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L10*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L10*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L10*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L10*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L10*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L10*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L10*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L10*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L10*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L10*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L10*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L10*nA,"0.00E+00")&amp;"),"</f>
-        <v>inverter =&gt;( ssxlib =&gt; 483E-12, sxlib =&gt;  483E-12 , vxlib =&gt; 550E-12 , vsclib =&gt; 400E-12 , wsclib =&gt; 400E-12 , vgalib =&gt; 425E-12 , rgalib =&gt; 458E-12 , ac =&gt; 200E-08 , act =&gt; 400E-08 , hc =&gt; 200E-08 , hct =&gt; 0.000E+00 , cmos =&gt; 001E-08),</v>
+        <v>inverter =&gt;( ssxlib =&gt; 4.83E-10, sxlib =&gt;  4.83E-10 , vxlib =&gt; 5.50E-10 , vsclib =&gt; 4.00E-10 , wsclib =&gt; 4.00E-10 , vgalib =&gt; 4.25E-10 , rgalib =&gt; 4.58E-10 , ac =&gt; 2.00E-06 , act =&gt; 4.00E-06 , hc =&gt; 2.00E-06 , hct =&gt; 0.00E+00 , cmos =&gt; 1.00E-08),</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="str">
         <f>ssxlibx2!A11 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L11*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L11*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L11*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L11*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L11*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L11*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L11*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L11*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L11*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L11*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L11*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L11*nA,"0.00E+00")&amp;"),"</f>
-        <v>and2 =&gt;( ssxlib =&gt; 967E-12, sxlib =&gt;  967E-12 , vxlib =&gt; 1.233E-12 , vsclib =&gt; 892E-12 , wsclib =&gt; 892E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 200E-08 , act =&gt; 400E-08 , hc =&gt; 200E-08 , hct =&gt; 0.000E+00 , cmos =&gt; 4.000E-12),</v>
+        <v>and2 =&gt;( ssxlib =&gt; 9.67E-10, sxlib =&gt;  9.67E-10 , vxlib =&gt; 1.23E-09 , vsclib =&gt; 8.92E-10 , wsclib =&gt; 8.92E-10 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 2.00E-06 , act =&gt; 4.00E-06 , hc =&gt; 2.00E-06 , hct =&gt; 0.00E+00 , cmos =&gt; 4.00E-09),</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="20" t="str">
         <f>ssxlibx2!A12 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L12*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L12*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L12*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L12*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L12*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L12*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L12*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L12*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L12*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L12*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L12*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L12*nA,"0.00E+00")&amp;"),"</f>
-        <v>and3 =&gt;( ssxlib =&gt; 1.350E-12, sxlib =&gt;  1.350E-12 , vxlib =&gt; 1.475E-12 , vsclib =&gt; 1.058E-12 , wsclib =&gt; 1.058E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 001E-08),</v>
+        <v>and3 =&gt;( ssxlib =&gt; 1.35E-09, sxlib =&gt;  1.35E-09 , vxlib =&gt; 1.48E-09 , vsclib =&gt; 1.06E-09 , wsclib =&gt; 1.06E-09 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 1.00E-08),</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="str">
         <f>ssxlibx2!A13 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L13*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L13*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L13*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L13*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L13*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L13*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L13*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L13*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L13*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L13*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L13*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L13*nA,"0.00E+00")&amp;"),"</f>
-        <v>and4 =&gt;( ssxlib =&gt; 1.542E-12, sxlib =&gt;  1.542E-12 , vxlib =&gt; 1.508E-12 , vsclib =&gt; 1.250E-12 , wsclib =&gt; 1.250E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 001E-08),</v>
+        <v>and4 =&gt;( ssxlib =&gt; 1.54E-09, sxlib =&gt;  1.54E-09 , vxlib =&gt; 1.51E-09 , vsclib =&gt; 1.25E-09 , wsclib =&gt; 1.25E-09 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 1.00E-08),</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="20" t="str">
         <f>ssxlibx2!A14 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L14*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L14*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L14*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L14*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L14*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L14*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L14*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L14*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L14*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L14*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L14*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L14*nA,"0.00E+00")&amp;"),"</f>
-        <v>or2 =&gt;( ssxlib =&gt; 1.058E-12, sxlib =&gt;  1.058E-12 , vxlib =&gt; 683E-12 , vsclib =&gt; 825E-12 , wsclib =&gt; 825E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 200E-08 , act =&gt; 400E-08 , hc =&gt; 200E-08 , hct =&gt; 0.000E+00 , cmos =&gt; 4.000E-12),</v>
+        <v>or2 =&gt;( ssxlib =&gt; 1.06E-09, sxlib =&gt;  1.06E-09 , vxlib =&gt; 6.83E-10 , vsclib =&gt; 8.25E-10 , wsclib =&gt; 8.25E-10 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 2.00E-06 , act =&gt; 4.00E-06 , hc =&gt; 2.00E-06 , hct =&gt; 0.00E+00 , cmos =&gt; 4.00E-09),</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="20" t="str">
         <f>ssxlibx2!A15 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L15*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L15*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L15*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L15*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L15*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L15*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L15*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L15*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L15*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L15*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L15*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L15*nA,"0.00E+00")&amp;"),"</f>
-        <v>or3 =&gt;( ssxlib =&gt; 1.158E-12, sxlib =&gt;  1.158E-12 , vxlib =&gt; 850E-12 , vsclib =&gt; 1.050E-12 , wsclib =&gt; 1.050E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 001E-08),</v>
+        <v>or3 =&gt;( ssxlib =&gt; 1.16E-09, sxlib =&gt;  1.16E-09 , vxlib =&gt; 8.50E-10 , vsclib =&gt; 1.05E-09 , wsclib =&gt; 1.05E-09 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 1.00E-08),</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="20" t="str">
         <f>ssxlibx2!A16 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L16*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L16*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L16*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L16*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L16*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L16*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L16*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L16*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L16*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L16*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L16*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L16*nA,"0.00E+00")&amp;"),"</f>
-        <v>or4 =&gt;( ssxlib =&gt; 1.250E-12, sxlib =&gt;  1.250E-12 , vxlib =&gt; 892E-12 , vsclib =&gt; 1.133E-12 , wsclib =&gt; 1.133E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 025E-08),</v>
+        <v>or4 =&gt;( ssxlib =&gt; 1.25E-09, sxlib =&gt;  1.25E-09 , vxlib =&gt; 8.92E-10 , vsclib =&gt; 1.13E-09 , wsclib =&gt; 1.13E-09 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 2.50E-07),</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="20" t="str">
         <f>ssxlibx2!A17 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L17*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L17*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L17*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L17*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L17*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L17*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L17*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L17*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L17*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L17*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L17*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L17*nA,"0.00E+00")&amp;"),"</f>
-        <v>nand2 =&gt;( ssxlib =&gt; 575E-12, sxlib =&gt;  575E-12 , vxlib =&gt; 1.067E-12 , vsclib =&gt; 658E-12 , wsclib =&gt; 658E-12 , vgalib =&gt; 675E-12 , rgalib =&gt; 733E-12 , ac =&gt; 200E-08 , act =&gt; 200E-08 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 4.000E-12),</v>
+        <v>nand2 =&gt;( ssxlib =&gt; 5.75E-10, sxlib =&gt;  5.75E-10 , vxlib =&gt; 1.07E-09 , vsclib =&gt; 6.58E-10 , wsclib =&gt; 6.58E-10 , vgalib =&gt; 6.75E-10 , rgalib =&gt; 7.33E-10 , ac =&gt; 2.00E-06 , act =&gt; 2.00E-06 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 4.00E-09),</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="20" t="str">
         <f>ssxlibx2!A18 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L18*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L18*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L18*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L18*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L18*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L18*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L18*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L18*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L18*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L18*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L18*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L18*nA,"0.00E+00")&amp;"),"</f>
-        <v>nand3 =&gt;( ssxlib =&gt; 767E-12, sxlib =&gt;  767E-12 , vxlib =&gt; 1.267E-12 , vsclib =&gt; 1.075E-12 , wsclib =&gt; 1.075E-12 , vgalib =&gt; 925E-12 , rgalib =&gt; 1.000E-12 , ac =&gt; 200E-08 , act =&gt; 400E-08 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 4.000E-12),</v>
+        <v>nand3 =&gt;( ssxlib =&gt; 7.67E-10, sxlib =&gt;  7.67E-10 , vxlib =&gt; 1.27E-09 , vsclib =&gt; 1.08E-09 , wsclib =&gt; 1.08E-09 , vgalib =&gt; 9.25E-10 , rgalib =&gt; 1.00E-09 , ac =&gt; 2.00E-06 , act =&gt; 4.00E-06 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 4.00E-09),</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="20" t="str">
         <f>ssxlibx2!A19 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L19*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L19*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L19*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L19*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L19*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L19*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L19*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L19*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L19*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L19*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L19*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L19*nA,"0.00E+00")&amp;"),"</f>
-        <v>nand4 =&gt;( ssxlib =&gt; 967E-12, sxlib =&gt;  967E-12 , vxlib =&gt; 1.942E-12 , vsclib =&gt; 1.250E-12 , wsclib =&gt; 1.250E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 200E-08 , act =&gt; 400E-08 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 5.000E-12),</v>
+        <v>nand4 =&gt;( ssxlib =&gt; 9.67E-10, sxlib =&gt;  9.67E-10 , vxlib =&gt; 1.94E-09 , vsclib =&gt; 1.25E-09 , wsclib =&gt; 1.25E-09 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 2.00E-06 , act =&gt; 4.00E-06 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 5.00E-09),</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="20" t="str">
         <f>ssxlibx2!A20 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L20*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L20*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L20*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L20*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L20*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L20*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L20*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L20*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L20*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L20*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L20*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L20*nA,"0.00E+00")&amp;"),"</f>
-        <v>nor2 =&gt;( ssxlib =&gt; 575E-12, sxlib =&gt;  575E-12 , vxlib =&gt; 1.158E-12 , vsclib =&gt; 808E-12 , wsclib =&gt; 808E-12 , vgalib =&gt; 675E-12 , rgalib =&gt; 1.308E-12 , ac =&gt; 200E-08 , act =&gt; 400E-08 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 4.000E-12),</v>
+        <v>nor2 =&gt;( ssxlib =&gt; 5.75E-10, sxlib =&gt;  5.75E-10 , vxlib =&gt; 1.16E-09 , vsclib =&gt; 8.08E-10 , wsclib =&gt; 8.08E-10 , vgalib =&gt; 6.75E-10 , rgalib =&gt; 1.31E-09 , ac =&gt; 2.00E-06 , act =&gt; 4.00E-06 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 4.00E-09),</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="20" t="str">
         <f>ssxlibx2!A21 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L21*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L21*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L21*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L21*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L21*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L21*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L21*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L21*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L21*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L21*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L21*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L21*nA,"0.00E+00")&amp;"),"</f>
-        <v>nor3 =&gt;( ssxlib =&gt; 675E-12, sxlib =&gt;  675E-12 , vxlib =&gt; 1.183E-12 , vsclib =&gt; 1.217E-12 , wsclib =&gt; 1.217E-12 , vgalib =&gt; 1.692E-12 , rgalib =&gt; 1.692E-12 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 5.000E-12),</v>
+        <v>nor3 =&gt;( ssxlib =&gt; 6.75E-10, sxlib =&gt;  6.75E-10 , vxlib =&gt; 1.18E-09 , vsclib =&gt; 1.22E-09 , wsclib =&gt; 1.22E-09 , vgalib =&gt; 1.69E-09 , rgalib =&gt; 1.69E-09 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 5.00E-09),</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="str">
         <f>ssxlibx2!A22 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L22*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L22*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L22*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L22*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L22*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L22*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L22*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L22*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L22*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L22*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L22*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L22*nA,"0.00E+00")&amp;"),"</f>
-        <v>nor4 =&gt;( ssxlib =&gt; 767E-12, sxlib =&gt;  767E-12 , vxlib =&gt; 1.175E-12 , vsclib =&gt; 1.183E-12 , wsclib =&gt; 1.183E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 5.000E-12),</v>
+        <v>nor4 =&gt;( ssxlib =&gt; 7.67E-10, sxlib =&gt;  7.67E-10 , vxlib =&gt; 1.18E-09 , vsclib =&gt; 1.18E-09 , wsclib =&gt; 1.18E-09 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 5.00E-09),</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="20" t="str">
         <f>ssxlibx2!A23 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L23*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L23*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L23*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L23*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L23*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L23*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L23*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L23*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L23*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L23*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L23*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L23*nA,"0.00E+00")&amp;"),"</f>
-        <v>xor2 =&gt;( ssxlib =&gt; 1.733E-12, sxlib =&gt;  1.733E-12 , vxlib =&gt; 1.058E-12 , vsclib =&gt; 1.517E-12 , wsclib =&gt; 1.517E-12 , vgalib =&gt; 1.017E-12 , rgalib =&gt; 1.383E-12 , ac =&gt; 200E-08 , act =&gt; 200E-08 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 005E-08),</v>
+        <v>xor2 =&gt;( ssxlib =&gt; 1.73E-09, sxlib =&gt;  1.73E-09 , vxlib =&gt; 1.06E-09 , vsclib =&gt; 1.52E-09 , wsclib =&gt; 1.52E-09 , vgalib =&gt; 1.02E-09 , rgalib =&gt; 1.38E-09 , ac =&gt; 2.00E-06 , act =&gt; 2.00E-06 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 5.00E-08),</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="20" t="str">
         <f>ssxlibx2!A24 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L24*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L24*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L24*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L24*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L24*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L24*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L24*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L24*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L24*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L24*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L24*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L24*nA,"0.00E+00")&amp;"),"</f>
-        <v>xnor2 =&gt;( ssxlib =&gt; 1.733E-12, sxlib =&gt;  1.733E-12 , vxlib =&gt; 1.017E-12 , vsclib =&gt; 1.633E-12 , wsclib =&gt; 1.633E-12 , vgalib =&gt; 1.100E-12 , rgalib =&gt; 1.383E-12 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 010E-08),</v>
+        <v>xnor2 =&gt;( ssxlib =&gt; 1.73E-09, sxlib =&gt;  1.73E-09 , vxlib =&gt; 1.02E-09 , vsclib =&gt; 1.63E-09 , wsclib =&gt; 1.63E-09 , vgalib =&gt; 1.10E-09 , rgalib =&gt; 1.38E-09 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 1.00E-07),</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="20" t="str">
         <f>ssxlibx2!A25 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L25*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L25*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L25*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L25*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L25*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L25*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L25*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L25*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L25*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L25*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L25*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L25*nA,"0.00E+00")&amp;"),"</f>
-        <v>mux2 =&gt;( ssxlib =&gt; 1.442E-12, sxlib =&gt;  1.442E-12 , vxlib =&gt; 0.000E+00 , vsclib =&gt; 0.000E+00 , wsclib =&gt; 858E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 0.000E+00),</v>
+        <v>mux2 =&gt;( ssxlib =&gt; 1.44E-09, sxlib =&gt;  1.44E-09 , vxlib =&gt; 0.00E+00 , vsclib =&gt; 0.00E+00 , wsclib =&gt; 8.58E-10 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 0.00E+00),</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="20" t="str">
         <f>ssxlibx2!A26 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L26*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L26*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L26*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L26*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L26*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L26*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L26*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L26*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L26*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L26*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L26*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L26*nA,"0.00E+00")&amp;"),"</f>
-        <v>mux4 =&gt;( ssxlib =&gt; 0.000E+00, sxlib =&gt;  0.000E+00 , vxlib =&gt; 0.000E+00 , vsclib =&gt; 0.000E+00 , wsclib =&gt; 0.000E+00 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 800E-08 , hct =&gt; 0.000E+00 , cmos =&gt; 0.000E+00),</v>
+        <v>mux4 =&gt;( ssxlib =&gt; 0.00E+00, sxlib =&gt;  0.00E+00 , vxlib =&gt; 0.00E+00 , vsclib =&gt; 0.00E+00 , wsclib =&gt; 0.00E+00 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 8.00E-06 , hct =&gt; 0.00E+00 , cmos =&gt; 0.00E+00),</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="20" t="str">
         <f>ssxlibx2!A27 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L27*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L27*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L27*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L27*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L27*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L27*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L27*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L27*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L27*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L27*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L27*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L27*nA,"0.00E+00")&amp;"),"</f>
-        <v>num163 =&gt;( ssxlib =&gt; 0.000E+00, sxlib =&gt;  0.000E+00 , vxlib =&gt; 0.000E+00 , vsclib =&gt; 0.000E+00 , wsclib =&gt; 0.000E+00 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 800E-08 , hct =&gt; 0.000E+00 , cmos =&gt; 0.000E+00),</v>
+        <v>num163 =&gt;( ssxlib =&gt; 0.00E+00, sxlib =&gt;  0.00E+00 , vxlib =&gt; 0.00E+00 , vsclib =&gt; 0.00E+00 , wsclib =&gt; 0.00E+00 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 8.00E-06 , hct =&gt; 0.00E+00 , cmos =&gt; 0.00E+00),</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="20" t="str">
         <f>ssxlibx2!A28 &amp; " =&gt;( ssxlib =&gt; " &amp; TEXT(ssxlibx2!L28*nA,"0.00E+00") &amp; ", sxlib =&gt;  "  &amp; TEXT(sxlibx2!L28*nA,"0.00E+00") &amp; " , vxlib =&gt; " &amp; TEXT(vxlibx2!L28*nA,"0.00E+00")&amp; " , vsclib =&gt; " &amp; TEXT(vsclibx2!L28*nA, "0.00E+00") &amp; " , wsclib =&gt; " &amp; TEXT(wsclibx2!L28*nA, "0.00E+00") &amp; " , vgalib =&gt; " &amp; TEXT(vgalibx2!L28*nA, "0.00E+00") &amp; " , rgalib =&gt; " &amp; TEXT(rgalibx2!L28*nA, "0.00E+00") &amp; " , ac =&gt; " &amp; TEXT(ac!L28*uA, "0.00E+00") &amp; " , act =&gt; " &amp; TEXT(act!L28*uA, "0.00E+00") &amp; " , hc =&gt; " &amp; TEXT(hc!L28*uA, "0.00E+00") &amp; " , hct =&gt; " &amp; TEXT(hct!L28*uA, "0.00E+00") &amp; " , cmos =&gt; " &amp; TEXT(cmos!L28*nA,"0.00E+00")&amp;"),"</f>
-        <v>dff_rising_edge =&gt;( ssxlib =&gt; 0.000E+00, sxlib =&gt;  0.000E+00 , vxlib =&gt; 0.000E+00 , vsclib =&gt; 1.767E-12 , wsclib =&gt; 1.767E-12 , vgalib =&gt; 0.000E+00 , rgalib =&gt; 0.000E+00 , ac =&gt; 0.000E+00 , act =&gt; 0.000E+00 , hc =&gt; 0.000E+00 , hct =&gt; 0.000E+00 , cmos =&gt; 0.000E+00),</v>
+        <v>dff_rising_edge =&gt;( ssxlib =&gt; 0.00E+00, sxlib =&gt;  0.00E+00 , vxlib =&gt; 0.00E+00 , vsclib =&gt; 1.77E-09 , wsclib =&gt; 1.77E-09 , vgalib =&gt; 0.00E+00 , rgalib =&gt; 0.00E+00 , ac =&gt; 0.00E+00 , act =&gt; 0.00E+00 , hc =&gt; 0.00E+00 , hct =&gt; 0.00E+00 , cmos =&gt; 0.00E+00),</v>
       </c>
     </row>
   </sheetData>
@@ -6295,7 +6300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -7705,7 +7710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EC2ACA-1533-4922-94A4-1C2062C36F9B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -9107,7 +9112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8931ED3F-218D-49ED-B1A9-4698AB234161}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A28"/>
     </sheetView>
   </sheetViews>
@@ -10507,8 +10512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B16F2BC-9B4C-4AD0-9117-267F85A79AE3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11908,7 +11913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3909F10-6235-4E59-ABD1-9231BF023B6B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A28"/>
     </sheetView>
   </sheetViews>
